--- a/data/trans_camb/P57_AC_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>6.17890223280294</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-7.342569001705668</v>
+        <v>-7.342569001705657</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.008543681282037</v>
+        <v>-7.48146209457151</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.231847375439487</v>
+        <v>0.8889956857817155</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-12.57043512786729</v>
+        <v>-12.60846960323116</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.281812715762495</v>
+        <v>-5.517626049732163</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.903147717499483</v>
+        <v>3.503927246066554</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-10.53549392121004</v>
+        <v>-10.27031144530966</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-5.257851074434327</v>
+        <v>-5.383613427647113</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.647232235603109</v>
+        <v>3.632443628334971</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-9.959634558687554</v>
+        <v>-10.22305223703791</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6798913688839819</v>
+        <v>0.4611719441913765</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.150666490741168</v>
+        <v>8.832649500288818</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-3.42421469401497</v>
+        <v>-3.314630206014701</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.293384913206715</v>
+        <v>1.32786461841227</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.53209345441947</v>
+        <v>10.23958720502647</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-3.804807515338647</v>
+        <v>-3.872740192494436</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.1812776280130038</v>
+        <v>0.1391681261901742</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.593760025451832</v>
+        <v>8.601290929940406</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-4.432292840624546</v>
+        <v>-4.510109781865669</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.08104254511118711</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.09630521039702515</v>
+        <v>-0.09630521039702501</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.09303900519706175</v>
+        <v>-0.09886205467198057</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.01679523734808978</v>
+        <v>0.0117067679310282</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1672236247548355</v>
+        <v>-0.1671623072840577</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.06626602402688458</v>
+        <v>-0.06982660559195654</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.04918102921515426</v>
+        <v>0.04452697675858466</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1313634912686517</v>
+        <v>-0.1291185189935273</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06816968571811992</v>
+        <v>-0.06898832645103231</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.04767165341612858</v>
+        <v>0.0465949705432055</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1289466913583134</v>
+        <v>-0.1328121548484091</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.008868946528219833</v>
+        <v>0.006577418169590331</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.126681518165427</v>
+        <v>0.1237017025412225</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.04743275246618708</v>
+        <v>-0.04585062945266827</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.01668661123111224</v>
+        <v>0.01719268081140366</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1389470306678838</v>
+        <v>0.1334594437719261</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.04936780906500871</v>
+        <v>-0.0504640178674914</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.002456192715832236</v>
+        <v>0.00181215667708326</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1155502850253113</v>
+        <v>0.1143628630734778</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.05881548444612651</v>
+        <v>-0.06042065105137003</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>15.76046647007244</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-2.187934620336629</v>
+        <v>-2.18793462033664</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>6.212724887036902</v>
@@ -869,7 +869,7 @@
         <v>16.00865581473433</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-3.132340919864585</v>
+        <v>-3.132340919864574</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>3.080793678366323</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.241492525677143</v>
+        <v>-3.06575398996653</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>13.04085268353834</v>
+        <v>12.88760173840241</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.838126228777501</v>
+        <v>-5.639680998103423</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.337910763798714</v>
+        <v>3.133235047830627</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>13.00702004699819</v>
+        <v>13.19484769947677</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.346219764223377</v>
+        <v>-6.162353519935632</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8668814001413907</v>
+        <v>0.8827699585506422</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>13.81640291271034</v>
+        <v>13.84408880575331</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.88461028093185</v>
+        <v>-4.855800082191846</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.348048712015623</v>
+        <v>3.416235047598647</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.03109038547347</v>
+        <v>18.69857528245243</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.074295302436791</v>
+        <v>0.9657482668783348</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.600635703418446</v>
+        <v>9.486992520492619</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>18.89035891998802</v>
+        <v>18.82586122458055</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.05520117962971353</v>
+        <v>0.1973001701791277</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.164861757378899</v>
+        <v>5.484656700750419</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>17.94051568384701</v>
+        <v>17.91410154444683</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.2377080592190191</v>
+        <v>-0.3365102361341318</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2438066158463658</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.03384626568574685</v>
+        <v>-0.03384626568574702</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.09244229850816983</v>
@@ -974,7 +974,7 @@
         <v>0.2382009450680879</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.04660769623771002</v>
+        <v>-0.04660769623770985</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.04676176432291142</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.04820874427885957</v>
+        <v>-0.0467866572405236</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1942841733579057</v>
+        <v>0.1934118258995798</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.08784035283790011</v>
+        <v>-0.08484470437987597</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.04717506229018418</v>
+        <v>0.04530391739731612</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1901153350073957</v>
+        <v>0.1903233062302137</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.09157995464584089</v>
+        <v>-0.09011803516470197</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01313999407246008</v>
+        <v>0.01335560699469883</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2056236984240714</v>
+        <v>0.2051774774514507</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.07312472820973727</v>
+        <v>-0.07276064084310085</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.05333194368008044</v>
+        <v>0.05328572003920955</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3005097205628936</v>
+        <v>0.2980975783567646</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.01718543699264314</v>
+        <v>0.01515304271102558</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1458789397759438</v>
+        <v>0.1434834823630454</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2916209084759129</v>
+        <v>0.288523915234174</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.0008637526319174144</v>
+        <v>0.002536701785881037</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07952614769340653</v>
+        <v>0.08437265639411538</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2786885602539655</v>
+        <v>0.2766321493341258</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.00357449798529637</v>
+        <v>-0.005550210543793096</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>10.03140330596831</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-6.951369919604655</v>
+        <v>-6.951369919604677</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-1.045048459378939</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.692329482230971</v>
+        <v>-9.195728439440154</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.544678187893866</v>
+        <v>1.019653036743914</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-13.58628006179362</v>
+        <v>-13.23832168244444</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.18893950614965</v>
+        <v>-4.386982762463579</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.356791159492759</v>
+        <v>3.992360621458844</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-12.44402133267458</v>
+        <v>-12.61652096333722</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.320610134655004</v>
+        <v>-5.543829804446596</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.534793592462984</v>
+        <v>3.712676418900414</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-11.26677536189788</v>
+        <v>-11.79807980423449</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.652879341662816</v>
+        <v>2.938623760567707</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.93189726472663</v>
+        <v>12.50687048460887</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.583905305886553</v>
+        <v>-2.45004210340994</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.142171932328989</v>
+        <v>8.109510994350797</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>16.05996395450493</v>
+        <v>15.81251987841354</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-1.107168181353765</v>
+        <v>-1.882270745771794</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.327251861081423</v>
+        <v>3.150699918709787</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>12.47567047093539</v>
+        <v>12.30352868594102</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-3.159365475030898</v>
+        <v>-3.774820613985583</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.1602391350243849</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1110394497337436</v>
+        <v>-0.1110394497337439</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.01611028495990221</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1394118454319747</v>
+        <v>-0.1325629948041906</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.02447177587086724</v>
+        <v>0.01531580523866529</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1946231139550082</v>
+        <v>-0.1897381488416884</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.07877007545734414</v>
+        <v>-0.06771246866200559</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.0501314078852237</v>
+        <v>0.06294542346641277</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1866300923303288</v>
+        <v>-0.1896566264830636</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.07905348261983028</v>
+        <v>-0.08274953607669112</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.06714394682741544</v>
+        <v>0.0549228605898885</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1689457629895371</v>
+        <v>-0.1753946249178868</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.04261772838181484</v>
+        <v>0.04534752737093087</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2045063752879501</v>
+        <v>0.1959496988018487</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.02377886400851794</v>
+        <v>-0.03776922168033811</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1364491194091133</v>
+        <v>0.138436690238086</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.270176504785452</v>
+        <v>0.2692856506077919</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.01881070629919689</v>
+        <v>-0.02914782598315154</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05225165176545048</v>
+        <v>0.04996362419317323</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2006040484305881</v>
+        <v>0.1928260974724437</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.05027300811883557</v>
+        <v>-0.06001947554484455</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>11.05279838565307</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-5.580808842589169</v>
+        <v>-5.580808842589191</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.446809507996661</v>
@@ -1297,7 +1297,7 @@
         <v>11.32772730671477</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-6.848163707777955</v>
+        <v>-6.848163707777943</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.4341532053320662</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.194268341397184</v>
+        <v>-4.080553638196925</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.965736372222159</v>
+        <v>8.77884418400153</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.068888507611684</v>
+        <v>-8.07375835612017</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4183082779038356</v>
+        <v>0.2699394313225724</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>9.160382677566135</v>
+        <v>9.280382597615098</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-8.938888883227866</v>
+        <v>-9.005056855498275</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.324655390444034</v>
+        <v>-1.28936217715688</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>9.739732581278311</v>
+        <v>9.681405063926826</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-7.8981273904954</v>
+        <v>-7.921171389069984</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5963962494886703</v>
+        <v>0.6595310133435429</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.03967315694636</v>
+        <v>13.27646325355349</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-3.283538638748183</v>
+        <v>-2.974987933788686</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.634372381335727</v>
+        <v>4.527435539736471</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>13.40654660913135</v>
+        <v>13.35241604584833</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-4.741419263866295</v>
+        <v>-4.697692371180713</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.886686734187961</v>
+        <v>2.024883328050698</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>12.66501899521312</v>
+        <v>12.68957568004085</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-4.568413651394684</v>
+        <v>-4.64955978460755</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1625697409531475</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.08208515311619415</v>
+        <v>-0.08208515311619448</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.03459203959945361</v>
@@ -1402,7 +1402,7 @@
         <v>0.160146995622278</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.09681667060258919</v>
+        <v>-0.09681667060258903</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.006257435863694838</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.06073466667311434</v>
+        <v>-0.05915823295884829</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1284152366578849</v>
+        <v>0.1265048208363181</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1173558987917584</v>
+        <v>-0.1178492217850067</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.005743646003178176</v>
+        <v>0.00359086135272414</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1276500024898373</v>
+        <v>0.1293645370083813</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1248439219259467</v>
+        <v>-0.1250994532036899</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01878553523308849</v>
+        <v>-0.01822032779798229</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1386901102749164</v>
+        <v>0.1379403216332979</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1126513612633275</v>
+        <v>-0.1127529829133693</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.009141674514193773</v>
+        <v>0.009530317641399092</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1947856599537136</v>
+        <v>0.1987451420167778</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.04875588621000136</v>
+        <v>-0.0445662325935886</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.06670420575209884</v>
+        <v>0.06495446858900535</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1921849865452442</v>
+        <v>0.192717245972049</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.06856531277951587</v>
+        <v>-0.06722202780192646</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02760771852787253</v>
+        <v>0.02985397094049782</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1848509342394615</v>
+        <v>0.1849468072523545</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.06684429646186671</v>
+        <v>-0.06762404214307628</v>
       </c>
     </row>
     <row r="28">
